--- a/public/formatos/informe_proyectos.xlsx
+++ b/public/formatos/informe_proyectos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\WebProjects\LaravelProjects\sistemas-app\public\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611F1C47-F9FD-41FD-8AFA-7FEC4B1C7C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36525CE-9BC3-47B5-B3FB-07AD6E4B8894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1738465B-6626-4A91-BE06-82A6A58D01DC}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Evaluador</t>
   </si>
   <si>
-    <t>Titúlo del proyecto</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Unidades Tecnológicas de Santander
 </t>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Código modalidad</t>
+  </si>
+  <si>
+    <t>Título del proyecto</t>
   </si>
 </sst>
 </file>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3CC9D9-6EEE-4CA0-9BC3-322AC54757DC}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +691,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -716,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1</v>
@@ -740,13 +740,13 @@
         <v>3</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>4</v>
@@ -755,16 +755,16 @@
         <v>5</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
